--- a/Reco/doc/Similarities.xlsx
+++ b/Reco/doc/Similarities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>Categories</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>[0,1] -&gt; [0,1]</t>
+  </si>
+  <si>
+    <t>Distribution before propagation</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -138,6 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,10 +1056,131 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="L26" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.157</v>
+      </c>
+      <c r="M27" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="J28" s="6">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.157</v>
+      </c>
+      <c r="K29" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J30" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M30" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H24:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reco/doc/Similarities.xlsx
+++ b/Reco/doc/Similarities.xlsx
@@ -138,10 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.63287739738965354</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.43152612054190292</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0.45509867449330632</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0.26387475364796464</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -820,17 +820,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H8" s="5" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>6</v>
       </c>
@@ -867,7 +867,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>7</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0.1225</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>9</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.12239999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>10</v>
       </c>
@@ -934,16 +934,23 @@
       <c r="L14">
         <v>0.12239999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H16" s="5" t="s">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
@@ -1057,14 +1064,14 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
@@ -1090,17 +1097,17 @@
       <c r="H26" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>0.17</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0.13200000000000001</v>
       </c>
     </row>
@@ -1108,17 +1115,17 @@
       <c r="H27" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>0.157</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -1126,17 +1133,17 @@
       <c r="H28" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>0.17</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
         <v>-0.1</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>0.22500000000000001</v>
       </c>
     </row>
@@ -1144,17 +1151,17 @@
       <c r="H29" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>0.157</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>-0.1</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5">
         <v>0.05</v>
       </c>
     </row>
@@ -1162,19 +1169,19 @@
       <c r="H30" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>0.05</v>
       </c>
-      <c r="M30" s="6"/>
+      <c r="M30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
